--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-5.269606225676585</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.054822651416625</v>
+        <v>-9.129501146825831</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.785452421576643</v>
+        <v>-1.730883703332329</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.858487294648222</v>
+        <v>-7.807636790410958</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.313501105076874</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.71005313173649</v>
+        <v>-9.779115029226595</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.788345820504664</v>
+        <v>-1.738896192671465</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.702427044774847</v>
+        <v>-7.653173801484274</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.333746480599109</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.26888498623273</v>
+        <v>-10.32990820977801</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.790558419684916</v>
+        <v>-1.739014023397041</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.517393528712732</v>
+        <v>-7.456553597407232</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.333774654945417</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.91585422345946</v>
+        <v>-10.97541110908647</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.786146313627254</v>
+        <v>-1.738647438917472</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.084614365976636</v>
+        <v>-7.031695277890379</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.317008363007034</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.53962390005066</v>
+        <v>-11.59585534075587</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.844616538118403</v>
+        <v>-1.791749819243513</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.832652997787617</v>
+        <v>-6.781854862761721</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.288071857095755</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.3342874056349</v>
+        <v>-12.3925219686749</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.629732571577153</v>
+        <v>-1.580584066709313</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.457401413738065</v>
+        <v>-6.402688680162492</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.252743919415114</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.97734204431196</v>
+        <v>-13.0337698695598</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.531592669475574</v>
+        <v>-1.486070732494893</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.797470796698021</v>
+        <v>-5.744093478012304</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.216295302277052</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.59173763206848</v>
+        <v>-13.64904264160672</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.426042523965579</v>
+        <v>-1.374877804460113</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.390247809108973</v>
+        <v>-5.342539457553723</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.187129309139168</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.23497556298533</v>
+        <v>-14.2847001291782</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.341610262939287</v>
+        <v>-1.298314017441699</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.997779846822551</v>
+        <v>-4.946392558168776</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.171297236328794</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08393284845421</v>
+        <v>-15.12764804764274</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.223740260455228</v>
+        <v>-1.181465214579294</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.426510304626675</v>
+        <v>-4.383148597614879</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.17419702784742</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.86483634375181</v>
+        <v>-15.90360265246616</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9890738243201296</v>
+        <v>-0.9426616107462107</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.895761439725943</v>
+        <v>-3.856445254292239</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.198071376948559</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.63645739633462</v>
+        <v>-16.6683633383599</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9030966715585146</v>
+        <v>-0.8510285831569699</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.41765672455179</v>
+        <v>-3.385331828835568</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.246606537550512</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.36757086392512</v>
+        <v>-17.39537891516095</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7179715093765079</v>
+        <v>-0.670079865581474</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.832967571943146</v>
+        <v>-2.81411465585106</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.322519151514122</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.13487145657016</v>
+        <v>-18.16419821493563</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5377166838516234</v>
+        <v>-0.4852034571534602</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.554887059584884</v>
+        <v>-2.532001714217547</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.427984848881247</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.00545722633358</v>
+        <v>-19.03217861643354</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3745080366266663</v>
+        <v>-0.322138825259762</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.992389360292965</v>
+        <v>-1.968011492401671</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.563213257653489</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.82764075249113</v>
+        <v>-19.86174620139383</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1249818367662091</v>
+        <v>-0.07973483814520384</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.715120570710891</v>
+        <v>-1.696660423704057</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.725723545490734</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.579073474092</v>
+        <v>-20.60372628034298</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.006941634345206896</v>
+        <v>0.02935022913205777</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.272509088540657</v>
+        <v>-1.257295832638572</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.913541847628057</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.29814202306812</v>
+        <v>-21.32719384307391</v>
       </c>
       <c r="F19" t="n">
-        <v>0.261568404635753</v>
+        <v>0.3037125274832693</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8937749519352056</v>
+        <v>-0.8755635586823646</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.122663358430766</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.94686562887565</v>
+        <v>-21.9637285149358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4158088244141279</v>
+        <v>0.4535670258096658</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6566864397743882</v>
+        <v>-0.645178305576511</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.352625755058175</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.56394513871473</v>
+        <v>-22.58205179354484</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6054115541680047</v>
+        <v>0.6403810950582551</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3146631203371364</v>
+        <v>-0.3076849229224964</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.600959438513049</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.01627110959352</v>
+        <v>-23.03632851754704</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7768159829718825</v>
+        <v>0.8097431246188235</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2082357905367452</v>
+        <v>-0.190940858482825</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.864280890880186</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.46548111239598</v>
+        <v>-23.47797116930699</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8579227990763755</v>
+        <v>0.892355555550115</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07178781032027612</v>
+        <v>-0.04844423435347853</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.13964539518116</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.9542429620833</v>
+        <v>-23.9659474808238</v>
       </c>
       <c r="F24" t="n">
-        <v>1.007790389705614</v>
+        <v>1.037300440310864</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1100827961323249</v>
+        <v>-0.08819246578095888</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.420832611060658</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.20629597639221</v>
+        <v>-24.215329665353</v>
       </c>
       <c r="F25" t="n">
-        <v>1.064034922713669</v>
+        <v>1.091712050921078</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07559224276903424</v>
+        <v>0.1034526632162273</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.708208631407998</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.47633781480565</v>
+        <v>-24.48344693524871</v>
       </c>
       <c r="F26" t="n">
-        <v>1.203127548104167</v>
+        <v>1.22848733870859</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02809879573743622</v>
+        <v>0.001293424142238801</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.998696258503779</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.51969952181745</v>
+        <v>-24.53436290100018</v>
       </c>
       <c r="F27" t="n">
-        <v>1.172046421157909</v>
+        <v>1.196777781225929</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2342763808889383</v>
+        <v>-0.1990449939418535</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.288552326600216</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.6054671977336</v>
+        <v>-24.61730263950252</v>
       </c>
       <c r="F28" t="n">
-        <v>1.099711447957372</v>
+        <v>1.125411638435681</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6005204605833834</v>
+        <v>-0.5528252013309753</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.571842265795524</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.41797232873724</v>
+        <v>-24.42917933996976</v>
       </c>
       <c r="F29" t="n">
-        <v>1.110329305562012</v>
+        <v>1.139944094589997</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6476789354192807</v>
+        <v>-0.6023010137698581</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.842420669149064</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.15784136357498</v>
+        <v>-24.16900909789898</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9921189032040676</v>
+        <v>1.027428843968203</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9721585690486195</v>
+        <v>-0.9193442193850966</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.096425176539595</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.93554715362531</v>
+        <v>-23.94675416485783</v>
       </c>
       <c r="F31" t="n">
-        <v>0.924759005083387</v>
+        <v>0.9584978695065151</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.184699013381201</v>
+        <v>-1.134385293560447</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.329214032672841</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.58679439052742</v>
+        <v>-23.6007507853567</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8979197842578486</v>
+        <v>0.9352328473567679</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.434500151601334</v>
+        <v>-1.38069078692184</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.535074746031471</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.24919626945067</v>
+        <v>-23.26751240112624</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8592582139662315</v>
+        <v>0.898901706970978</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.717346262193984</v>
+        <v>-1.659831775810281</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.706259184482722</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.80175372753184</v>
+        <v>-22.81729429100497</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7939276227860185</v>
+        <v>0.8356004227312325</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.949564437697679</v>
+        <v>-1.898334256678005</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.838052894724308</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.43718546260114</v>
+        <v>-22.45633950165858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7049523326736481</v>
+        <v>0.7540746529358042</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.224201674408567</v>
+        <v>-2.176113646070907</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.926175550664489</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.86382115195058</v>
+        <v>-21.8847557441945</v>
       </c>
       <c r="F36" t="n">
-        <v>0.752699961137423</v>
+        <v>0.8017568198853706</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.519485472700857</v>
+        <v>-2.4740028126287</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.970652753116697</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.4197826087706</v>
+        <v>-21.43667167943643</v>
       </c>
       <c r="F37" t="n">
-        <v>0.769863970162926</v>
+        <v>0.8195230748415929</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.699557005985957</v>
+        <v>-2.656928467933297</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.971074697203358</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92867723687462</v>
+        <v>-20.95272779719486</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8679384107502959</v>
+        <v>0.9150445163748263</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.831632157053289</v>
+        <v>-2.788427557675594</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.927158223076376</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.43033182150715</v>
+        <v>-20.46439799350133</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8875637727100433</v>
+        <v>0.9343949399748974</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.890783181292208</v>
+        <v>-2.845981320967821</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.841904407799714</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.77442054143952</v>
+        <v>-19.80683708327564</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9069011040072726</v>
+        <v>0.9544523479284217</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.010630121505368</v>
+        <v>-2.965265292158787</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.718421775630834</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.24591046032472</v>
+        <v>-19.27095603566094</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9755964170178093</v>
+        <v>1.026931336460217</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.16416355693029</v>
+        <v>-3.120801849918493</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.564442269609106</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.4838860657249</v>
+        <v>-18.51168102465788</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9533918713982419</v>
+        <v>1.003391375950794</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.376402878297511</v>
+        <v>-3.335803647185319</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.385463619121627</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96183048991107</v>
+        <v>-17.99225700171524</v>
       </c>
       <c r="F43" t="n">
-        <v>1.061704492807842</v>
+        <v>1.107540645056725</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.413139880071395</v>
+        <v>-3.373849879243375</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.186458296409466</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.40331285068304</v>
+        <v>-17.43224683996325</v>
       </c>
       <c r="F44" t="n">
-        <v>1.013184418476405</v>
+        <v>1.061508108265216</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.561868440353403</v>
+        <v>-3.523521085329987</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.970689309810666</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.7552438600176</v>
+        <v>-16.78573583333598</v>
       </c>
       <c r="F45" t="n">
-        <v>1.032796688133311</v>
+        <v>1.07860665577651</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.735799683605733</v>
+        <v>-3.699808943093829</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.746059807420094</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.2833056194819</v>
+        <v>-16.31023648642733</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8670612264599002</v>
+        <v>0.9083412573198625</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.890000826475583</v>
+        <v>-3.860451498961807</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.520050206819505</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.67921367406181</v>
+        <v>-15.71310964611904</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9431536905760122</v>
+        <v>0.9847741213098593</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.867194034925296</v>
+        <v>-3.83824695334224</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.298810795702657</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.03579245090519</v>
+        <v>-15.07262109879896</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9220881753036749</v>
+        <v>0.9652796823785292</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.018331578930182</v>
+        <v>-3.984658176021262</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.086963045912869</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.52706483938424</v>
+        <v>-14.56487540999114</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8476453413456205</v>
+        <v>0.8862807270315541</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.118081834281293</v>
+        <v>-4.090051213897158</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.884680955755833</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.00105538811221</v>
+        <v>-14.04556921777408</v>
       </c>
       <c r="F50" t="n">
-        <v>0.84422825030393</v>
+        <v>0.8799964216675256</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.198101989249923</v>
+        <v>-4.169154907666867</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.696316663429408</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.51114141577482</v>
+        <v>-13.56734667187435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.950616303195796</v>
+        <v>0.9903645346232763</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.295678922329307</v>
+        <v>-4.264663256897258</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.522680233522073</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.88112671072812</v>
+        <v>-12.93625839799463</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8474751414086781</v>
+        <v>0.8817507902483169</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.405614989291281</v>
+        <v>-4.371260786634592</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.364308253729062</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.47348476944814</v>
+        <v>-12.53221683999612</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8615100900550083</v>
+        <v>0.8935469551087121</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.594497642388863</v>
+        <v>-4.562958284843145</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.219287859408966</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.85035661569618</v>
+        <v>-11.90644404107014</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8375118989461245</v>
+        <v>0.8688286873435332</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.775629652204143</v>
+        <v>-4.739940034657598</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.083052842182147</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.46591423505174</v>
+        <v>-11.52344181373828</v>
       </c>
       <c r="F55" t="n">
-        <v>0.794281114962745</v>
+        <v>0.8286615022251177</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.997779846822551</v>
+        <v>-4.957390092555826</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.953737116211355</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.07093255061971</v>
+        <v>-11.14380430823675</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7182541123608418</v>
+        <v>0.7533022070681424</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.198890710774305</v>
+        <v>-5.161551463069703</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.828882676625608</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51253274211725</v>
+        <v>-10.58857283702199</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6984978273726771</v>
+        <v>0.7338339527424957</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.280311742146999</v>
+        <v>-5.240982464410455</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.708029124634064</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.27063935481352</v>
+        <v>-10.35305540120218</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6110543366927887</v>
+        <v>0.6519154138618157</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.416982291511778</v>
+        <v>-5.386398672073506</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.589351899911446</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.765001526763214</v>
+        <v>-9.845781035296664</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6426460634498737</v>
+        <v>0.679579449766383</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.631447304362093</v>
+        <v>-5.602801345744396</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.471015855486739</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.621182580046852</v>
+        <v>-9.712160992494008</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6304047602928599</v>
+        <v>0.6638686863563117</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.685047192196119</v>
+        <v>-5.661297754841228</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.351034005756237</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.237630475995646</v>
+        <v>-9.335600178160282</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6646149476182901</v>
+        <v>0.6989167810636123</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.701844616742054</v>
+        <v>-5.67162758178335</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.230405604761288</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.955203319093931</v>
+        <v>-9.062390002459143</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6268567462227521</v>
+        <v>0.6603337645890456</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.796017551082589</v>
+        <v>-5.762592901927663</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.110637117076744</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.638330313415635</v>
+        <v>-8.741471475202752</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5892294678556314</v>
+        <v>0.6209128407326084</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.775947050826224</v>
+        <v>-5.755863458267015</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.992356825729335</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.325044598715973</v>
+        <v>-8.436106603722335</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4840197222195207</v>
+        <v>0.5180989865165336</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.69923924847655</v>
+        <v>-5.686016022606407</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.876107730848678</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.213210147841949</v>
+        <v>-8.322386861239101</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3535156474931952</v>
+        <v>0.3789408996118273</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.729246806589787</v>
+        <v>-5.705418815417845</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.760304604584894</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.014560636824438</v>
+        <v>-8.124103934701161</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3044195118367224</v>
+        <v>0.3344139776471169</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.717110241855506</v>
+        <v>-5.690676882418061</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.647438271634547</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.878819640961423</v>
+        <v>-7.994424675053864</v>
       </c>
       <c r="F67" t="n">
-        <v>0.209762162291043</v>
+        <v>0.2412360583225525</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.66927096727184</v>
+        <v>-5.643819530547524</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.538292860215238</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.736270647620709</v>
+        <v>-7.850645005246029</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532819678318367</v>
+        <v>0.186104371056044</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.614113095399647</v>
+        <v>-5.591921642082922</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.434614939030309</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.673859639974201</v>
+        <v>-7.783416030153765</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1444053865051464</v>
+        <v>0.1796105888465478</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.523409621312169</v>
+        <v>-5.504726905157026</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.337387799843921</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.681675744770711</v>
+        <v>-7.791899842395203</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03521558080515105</v>
+        <v>0.07398188951950194</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.422101381922893</v>
+        <v>-5.403471034979117</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.24641124203799</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.749847365667579</v>
+        <v>-7.861485431998977</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03572618061597836</v>
+        <v>0.07601119645996947</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.249584107377468</v>
+        <v>-5.234933820497577</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.16363129675362</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.76282183778373</v>
+        <v>-7.875651303673725</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.03430454728441438</v>
+        <v>-0.0004347598328690399</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.17093864420722</v>
+        <v>-5.150999066979272</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.090113050407197</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.979250696060303</v>
+        <v>-8.086607579362457</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.07007271864801</v>
+        <v>-0.03706702318401858</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.90272972819162</v>
+        <v>-4.882855612477879</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.029407776255678</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.103876326810694</v>
+        <v>-8.216142823678496</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1206744691312813</v>
+        <v>-0.0906669110180451</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.7643833640631</v>
+        <v>-4.750937569044647</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.983945351528921</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.448806137478808</v>
+        <v>-8.555848805512762</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2090606056157739</v>
+        <v>-0.1729520343782934</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.519282362563147</v>
+        <v>-4.50649118268678</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.956130042128161</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.709761917720092</v>
+        <v>-8.815285878624405</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1983380095884003</v>
+        <v>-0.1641147299601284</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.217923735752296</v>
+        <v>-4.215488567423735</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.948522397212988</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.229526340536617</v>
+        <v>-9.33179031803334</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2678057684665988</v>
+        <v>-0.2365282569777152</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.007085290789139</v>
+        <v>-3.992579019240507</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.963287666265461</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.680097942834621</v>
+        <v>-9.785700457555983</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2183561406333994</v>
+        <v>-0.1849183991756311</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.919445415566625</v>
+        <v>-3.900854345531374</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.0055728935388</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.11906976481485</v>
+        <v>-10.22751330925287</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2843282546528571</v>
+        <v>-0.2527758048042973</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.773282946641595</v>
+        <v>-3.752453092820409</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.078579663964253</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.72216669521896</v>
+        <v>-10.82385461139065</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3429163098695813</v>
+        <v>-0.3059305543417051</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.444914899068264</v>
+        <v>-3.42379701458456</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.185126031071333</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.40565036507127</v>
+        <v>-11.50615997398721</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3580510119546166</v>
+        <v>-0.3227672557961648</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.280305375439242</v>
+        <v>-3.26451605821212</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.325632777523113</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.25094180574448</v>
+        <v>-12.34902933863469</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4223080343018081</v>
+        <v>-0.3882942315190038</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.940389916759508</v>
+        <v>-2.925647983759724</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.501137602045133</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.17220787980821</v>
+        <v>-13.26566073749246</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4019625956857658</v>
+        <v>-0.3664824549846882</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.803536075154946</v>
+        <v>-2.778739253572716</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.711778716827212</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.1302633248572</v>
+        <v>-14.21537638563126</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4552482682515909</v>
+        <v>-0.4211035424403693</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.524918778380173</v>
+        <v>-2.503643786262368</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.958274729422344</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.3505052266146</v>
+        <v>-15.43806654802006</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5118070165278475</v>
+        <v>-0.4728705078765542</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.32290454553234</v>
+        <v>-2.305099013667592</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.239037782531133</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.41484398613272</v>
+        <v>-16.50148884633926</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6076950425406492</v>
+        <v>-0.5684443186211545</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.089010555264903</v>
+        <v>-2.064527948950876</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.549921948036824</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.59412007229835</v>
+        <v>-17.67492576543749</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5372191763436378</v>
+        <v>-0.4990027443486394</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.019163119604295</v>
+        <v>-2.004735401872713</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.886539051190355</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.97537111440329</v>
+        <v>-19.04948664079031</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6919440113271565</v>
+        <v>-0.6538061331492084</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.994078267359548</v>
+        <v>-1.97475402836516</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.241629140075301</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.51852157344902</v>
+        <v>-20.58251674973938</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6738111718913659</v>
+        <v>-0.636576662609497</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.980684841552462</v>
+        <v>-1.961517710192175</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.613222725462824</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.15570095150402</v>
+        <v>-22.21857018974999</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7115955578925873</v>
+        <v>-0.674950202238596</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.997338250767138</v>
+        <v>-1.973392428869621</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.996149788633846</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.86762428648244</v>
+        <v>-23.9293937712897</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8502430449864664</v>
+        <v>-0.8182323645384462</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.0405952193562</v>
+        <v>-2.014502259792641</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.384187250992674</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.60107136733266</v>
+        <v>-25.66617938936456</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8996664882139823</v>
+        <v>-0.8660454545164298</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.11113654706742</v>
+        <v>-2.077855913243753</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.770662666091461</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.62233963385538</v>
+        <v>-27.68857359393167</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.075325915441421</v>
+        <v>-1.039714851711926</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.299731169502484</v>
+        <v>-2.271203041610363</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.14426883714488</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.66988415218144</v>
+        <v>-29.74076587976655</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.104024243270485</v>
+        <v>-1.067103949256817</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.357154009766295</v>
+        <v>-2.336834755755936</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.502336914130579</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.87935427205397</v>
+        <v>-31.9412677721925</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.342291062687057</v>
+        <v>-1.30355093857839</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.569471884950567</v>
+        <v>-2.5492442770601</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.837047848555988</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.13424159048446</v>
+        <v>-34.20304164191773</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.469482784794426</v>
+        <v>-1.432287552421082</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.790273572376277</v>
+        <v>-2.767139473254947</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.1416868858025</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.35034950789775</v>
+        <v>-36.41695005245361</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.639211398834563</v>
+        <v>-1.606362811004672</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.878921554917604</v>
+        <v>-2.852200164817641</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.40371836113307</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.68856933391581</v>
+        <v>-38.7520408180925</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.909528175607681</v>
+        <v>-1.875658388156136</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.141042550111802</v>
+        <v>-3.112239483860004</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.61667433113387</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.99049729645661</v>
+        <v>-41.05917951716431</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.922463370815306</v>
+        <v>-1.89093710557243</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.375290032555965</v>
+        <v>-3.358152208136145</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.76821287956945</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.32248518632202</v>
+        <v>-43.39073536103594</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.259577076686911</v>
+        <v>-2.226741581159862</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.441589454146465</v>
+        <v>-3.418664831870603</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.85942616347525</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.66785340969167</v>
+        <v>-45.72781615670677</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.295803478649967</v>
+        <v>-2.267589566026047</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.698578266626706</v>
+        <v>-3.680667996339225</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.87172360151094</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.19745651865009</v>
+        <v>-48.26531392427875</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.556379582108841</v>
+        <v>-2.534620174785892</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.726582702405159</v>
+        <v>-3.71453778379077</v>
       </c>
     </row>
   </sheetData>
